--- a/BLOQUEADO_old.xlsx
+++ b/BLOQUEADO_old.xlsx
@@ -195,7 +195,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -258,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
